--- a/ENVELOPE.xlsx
+++ b/ENVELOPE.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>GUSTAVO BRAZ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>VITORIA BRAZ</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>CHEQUES</t>
   </si>
   <si>
-    <t>ESPECIE</t>
-  </si>
-  <si>
-    <t>C/C: 35902-5</t>
+    <t>C/P: 1014999-1</t>
   </si>
   <si>
     <t>AG: 2184</t>
@@ -261,20 +261,20 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
-        <v>322</v>
-      </c>
-      <c r="D14" s="5">
-        <v>150</v>
+        <v>255</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="118.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -293,7 +293,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="9">
-        <v>472</v>
+        <v>255</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>

--- a/ENVELOPE.xlsx
+++ b/ENVELOPE.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>VITORIA BRAZ</t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>CARLOS BRAZ</t>
   </si>
   <si>
     <t>CHEQUES</t>
   </si>
   <si>
-    <t>C/P: 1014999-1</t>
+    <t>ESPECIE</t>
+  </si>
+  <si>
+    <t>C/C: 14645-5</t>
   </si>
   <si>
     <t>AG: 2184</t>
@@ -263,18 +263,18 @@
       <c r="C14" s="4">
         <v>255</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>1</v>
+      <c r="D14" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="15" ht="118.5" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -293,7 +293,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="9">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>
